--- a/src/site/resource/psp2/recursos/PROBE.xlsx
+++ b/src/site/resource/psp2/recursos/PROBE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alvaro\Documents\Soft\projects\psp2\src\site\resource\psp2\recursos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alvaro\Documents\Uniandes\Soft\projects\psp2\src\site\resource\psp2\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Programa</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Actual Development Hours</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>---</t>
@@ -117,7 +114,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,7 +400,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I16" sqref="G7:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>180</v>
@@ -451,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>180</v>
@@ -484,14 +483,21 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>283</v>
+      </c>
+      <c r="C5" s="4">
+        <v>220</v>
+      </c>
+      <c r="D5" s="4">
+        <v>169</v>
+      </c>
+      <c r="E5" s="4">
+        <f>220/60</f>
+        <v>3.6666666666666665</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
